--- a/Data/processed_ders_listesi.xlsx
+++ b/Data/processed_ders_listesi.xlsx
@@ -479,10 +479,8 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +502,8 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -529,10 +525,8 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -554,10 +548,8 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -579,10 +571,8 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -604,10 +594,8 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -629,10 +617,8 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -654,10 +640,8 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -679,10 +663,8 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1. Sınıf</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +686,8 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -729,10 +709,8 @@
       <c r="D12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -754,10 +732,8 @@
       <c r="D13" t="b">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -779,10 +755,8 @@
       <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -804,10 +778,8 @@
       <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -829,10 +801,8 @@
       <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -854,10 +824,8 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2. Sınıf</t>
-        </is>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -879,10 +847,8 @@
       <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -904,10 +870,8 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -929,10 +893,8 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -954,10 +916,8 @@
       <c r="D21" t="b">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -979,10 +939,8 @@
       <c r="D22" t="b">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1004,10 +962,8 @@
       <c r="D23" t="b">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1029,10 +985,8 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1054,10 +1008,8 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3. Sınıf</t>
-        </is>
+      <c r="E25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1079,10 +1031,8 @@
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1104,10 +1054,8 @@
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1129,10 +1077,8 @@
       <c r="D28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1154,10 +1100,8 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1179,10 +1123,8 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1204,10 +1146,8 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1229,10 +1169,8 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1254,10 +1192,8 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1279,10 +1215,8 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1304,10 +1238,8 @@
       <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1329,10 +1261,8 @@
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1354,10 +1284,8 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1379,10 +1307,8 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1404,10 +1330,8 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1429,10 +1353,8 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4. Sınıf</t>
-        </is>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
